--- a/Thresholds.xlsx
+++ b/Thresholds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lotl\Documents\GitHub\Thresholds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C87D3A90-37F4-45F2-889A-B37E27B3FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF4785D-C79A-432D-A36B-487D908D4483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21ACA823-2B71-4A6F-B8DF-08DE964865B0}"/>
   </bookViews>
@@ -33,6 +33,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>average damage per attack when continously attacking</t>
+  </si>
+  <si>
+    <t>DamageBase + CritChance * (CritMod-1) * Damage Base</t>
+  </si>
+  <si>
+    <t>physical damage * (2 - 100/(100 - amor)</t>
+  </si>
+  <si>
+    <t>physical damage * (100 / (100 + armor)) {if armor is  &gt;=0}</t>
+  </si>
+  <si>
+    <t>physical post mitigation damage</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +422,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B28C137-1C5E-468C-93B1-32BAA8846283}">
-  <dimension ref="A1"/>
+  <dimension ref="C4:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>